--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_02/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_02/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\CSG\dataset_02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FB947-94F5-4648-A48C-13DF291A3B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_02_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.16</v>
       </c>
       <c r="N2">
-        <v>0.8960593946316391</v>
+        <v>0.89605939463163908</v>
       </c>
       <c r="O2">
         <v>2416</v>
@@ -615,19 +704,19 @@
         <v>1.290081518398851</v>
       </c>
       <c r="R2">
-        <v>893.0957902647638</v>
+        <v>893.09579026476376</v>
       </c>
       <c r="S2">
-        <v>3.633082706766917</v>
+        <v>3.6330827067669169</v>
       </c>
       <c r="T2">
-        <v>4.780722891566265</v>
+        <v>4.7807228915662652</v>
       </c>
       <c r="U2">
-        <v>1.56459176761412</v>
+        <v>1.5645917676141201</v>
       </c>
       <c r="V2">
-        <v>919.6944164401402</v>
+        <v>919.69441644014023</v>
       </c>
       <c r="W2">
         <v>8419</v>
@@ -639,10 +728,10 @@
         <v>8237</v>
       </c>
       <c r="Z2">
-        <v>1.022095423090931</v>
+        <v>1.0220954230909309</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9412515964240102</v>
+        <v>0.94125159642401024</v>
       </c>
       <c r="O3">
         <v>8255</v>
@@ -695,19 +784,19 @@
         <v>1.921852977859468</v>
       </c>
       <c r="R3">
-        <v>4725.401602745762</v>
+        <v>4725.4016027457619</v>
       </c>
       <c r="S3">
-        <v>6.833609271523179</v>
+        <v>6.8336092715231791</v>
       </c>
       <c r="T3">
-        <v>10.36864406779661</v>
+        <v>10.368644067796611</v>
       </c>
       <c r="U3">
-        <v>2.338786258417062</v>
+        <v>2.3387862584170618</v>
       </c>
       <c r="V3">
-        <v>4977.13932904072</v>
+        <v>4977.1393290407204</v>
       </c>
       <c r="W3">
         <v>25176</v>
@@ -719,10 +808,10 @@
         <v>24762</v>
       </c>
       <c r="Z3">
-        <v>1.016719166464744</v>
+        <v>1.0167191664647439</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9540336468406412</v>
+        <v>0.95403364684064118</v>
       </c>
       <c r="O4">
         <v>8009</v>
@@ -775,19 +864,19 @@
         <v>2.857094698840541</v>
       </c>
       <c r="R4">
-        <v>6234.736438533351</v>
+        <v>6234.7364385333512</v>
       </c>
       <c r="S4">
-        <v>17.41086956521739</v>
+        <v>17.410869565217389</v>
       </c>
       <c r="T4">
         <v>16.65652173913044</v>
       </c>
       <c r="U4">
-        <v>2.812801835777454</v>
+        <v>2.8128018357774538</v>
       </c>
       <c r="V4">
-        <v>5908.111155542371</v>
+        <v>5908.1111555423713</v>
       </c>
       <c r="W4">
         <v>16899</v>
@@ -802,7 +891,7 @@
         <v>1.020964233929434</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9869888475836431</v>
+        <v>0.98698884758364314</v>
       </c>
       <c r="O5">
         <v>6210</v>
@@ -855,10 +944,10 @@
         <v>2.012490474136881</v>
       </c>
       <c r="R5">
-        <v>3709.632906466389</v>
+        <v>3709.6329064663892</v>
       </c>
       <c r="S5">
-        <v>7.481927710843373</v>
+        <v>7.4819277108433733</v>
       </c>
       <c r="T5">
         <v>6.9</v>
@@ -867,7 +956,7 @@
         <v>1.931521411603214</v>
       </c>
       <c r="V5">
-        <v>3571.630729557108</v>
+        <v>3571.6307295571082</v>
       </c>
       <c r="W5">
         <v>18328</v>
@@ -882,7 +971,7 @@
         <v>1.003833935808961</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9547987616099072</v>
+        <v>0.95479876160990718</v>
       </c>
       <c r="O6">
         <v>12625</v>
@@ -932,22 +1021,22 @@
         <v>1320</v>
       </c>
       <c r="Q6">
-        <v>2.258047238563144</v>
+        <v>2.2580472385631438</v>
       </c>
       <c r="R6">
-        <v>8324.377645096651</v>
+        <v>8324.3776450966507</v>
       </c>
       <c r="S6">
-        <v>9.564393939393939</v>
+        <v>9.5643939393939394</v>
       </c>
       <c r="T6">
-        <v>13.92694610778443</v>
+        <v>13.926946107784429</v>
       </c>
       <c r="U6">
         <v>2.633825532442188</v>
       </c>
       <c r="V6">
-        <v>8594.755680410773</v>
+        <v>8594.7556804107735</v>
       </c>
       <c r="W6">
         <v>27017</v>
@@ -962,7 +1051,7 @@
         <v>1.019278653889685</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1015,7 +1104,7 @@
         <v>2.34112483914791</v>
       </c>
       <c r="R7">
-        <v>7968.528931762861</v>
+        <v>7968.5289317628612</v>
       </c>
       <c r="S7">
         <v>10.3929203539823</v>
@@ -1024,7 +1113,7 @@
         <v>12.07539267015707</v>
       </c>
       <c r="U7">
-        <v>2.491169718277563</v>
+        <v>2.4911697182775629</v>
       </c>
       <c r="V7">
         <v>8197.932919044928</v>
@@ -1039,10 +1128,10 @@
         <v>27296</v>
       </c>
       <c r="Z7">
-        <v>1.00135550996483</v>
+        <v>1.0013555099648299</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9190703807483105</v>
+        <v>0.91907038074831049</v>
       </c>
       <c r="O8">
         <v>8142</v>
@@ -1095,19 +1184,19 @@
         <v>1.367074696398126</v>
       </c>
       <c r="R8">
-        <v>3230.320004973889</v>
+        <v>3230.3200049738889</v>
       </c>
       <c r="S8">
-        <v>3.923855421686747</v>
+        <v>3.9238554216867469</v>
       </c>
       <c r="T8">
-        <v>6.576</v>
+        <v>6.5759999999999996</v>
       </c>
       <c r="U8">
         <v>1.883426657753879</v>
       </c>
       <c r="V8">
-        <v>3692.573342246121</v>
+        <v>3692.5733422461208</v>
       </c>
       <c r="W8">
         <v>22642</v>
@@ -1119,10 +1208,10 @@
         <v>22151</v>
       </c>
       <c r="Z8">
-        <v>1.022166042165139</v>
+        <v>1.0221660421651391</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1172,19 +1261,19 @@
         <v>745</v>
       </c>
       <c r="Q9">
-        <v>2.924603853991451</v>
+        <v>2.9246038539914512</v>
       </c>
       <c r="R9">
         <v>10953.17012877637</v>
       </c>
       <c r="S9">
-        <v>18.62684563758389</v>
+        <v>18.626845637583891</v>
       </c>
       <c r="T9">
-        <v>18.62684563758389</v>
+        <v>18.626845637583891</v>
       </c>
       <c r="U9">
-        <v>2.924603853991451</v>
+        <v>2.9246038539914512</v>
       </c>
       <c r="V9">
         <v>10953.17012877637</v>
@@ -1202,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1252,10 +1341,10 @@
         <v>455</v>
       </c>
       <c r="Q10">
-        <v>2.833601116309508</v>
+        <v>2.8336011163095081</v>
       </c>
       <c r="R10">
-        <v>5993.711492079174</v>
+        <v>5993.7114920791737</v>
       </c>
       <c r="S10">
         <v>17.00659340659341</v>
@@ -1264,10 +1353,10 @@
         <v>17.00659340659341</v>
       </c>
       <c r="U10">
-        <v>2.833601116309508</v>
+        <v>2.8336011163095081</v>
       </c>
       <c r="V10">
-        <v>5993.711492079174</v>
+        <v>5993.7114920791737</v>
       </c>
       <c r="W10">
         <v>16230</v>
@@ -1282,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9876965772432933</v>
+        <v>0.98769657724329329</v>
       </c>
       <c r="O11">
         <v>11880</v>
@@ -1332,22 +1421,22 @@
         <v>1070</v>
       </c>
       <c r="Q11">
-        <v>2.407197665460684</v>
+        <v>2.4071976654606839</v>
       </c>
       <c r="R11">
-        <v>8234.298497957068</v>
+        <v>8234.2984979570683</v>
       </c>
       <c r="S11">
         <v>11.10280373831776</v>
       </c>
       <c r="T11">
-        <v>14.86623376623377</v>
+        <v>14.866233766233769</v>
       </c>
       <c r="U11">
-        <v>2.699092451070747</v>
+        <v>2.6990924510707468</v>
       </c>
       <c r="V11">
-        <v>8598.698812675524</v>
+        <v>8598.6988126755241</v>
       </c>
       <c r="W11">
         <v>24899</v>
@@ -1359,10 +1448,53 @@
         <v>24766</v>
       </c>
       <c r="Z11">
-        <v>1.005370265686829</v>
+        <v>1.0053702656868291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.18399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.96364132431443805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0111783231000555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.89605939463163908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0221660421651391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>